--- a/data_raw/2024_census/doc/documentation_census.xlsx
+++ b/data_raw/2024_census/doc/documentation_census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoehler/Documents/GitHub/SAE_WS25/data_raw/2024_census/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37385E89-E162-C248-9404-5511AF92E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC529778-81BF-F048-B598-3DDD7EB0D510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONA" sheetId="2" r:id="rId1"/>
@@ -9163,8 +9163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J5616"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5453" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5488" sqref="C5488"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1518" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1563" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
